--- a/excel/data_excel/UniqueSuffix.xlsx
+++ b/excel/data_excel/UniqueSuffix.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267C5842-136E-4251-8DB5-945A904848EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,15 +13,15 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="UniqueSuffix" localSheetId="0">Sheet1!$A$1:$A$70</definedName>
+    <definedName name="UniqueSuffix" localSheetId="0">Sheet1!$C$1:$C$72</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="UniqueSuffix" type="6" refreshedVersion="4" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="UniqueSuffix" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="D:\minieditor20190622\Editor20190622\project\dreamland\excel\data_excel\UniqueSuffix.txt">
       <textFields>
         <textField/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="77">
   <si>
     <t>Name</t>
   </si>
@@ -241,12 +242,40 @@
   </si>
   <si>
     <t>lust</t>
+  </si>
+  <si>
+    <t>数据ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_UniqueSuffix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -295,12 +324,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="UniqueSuffix" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="UniqueSuffix" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -346,7 +378,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -379,9 +411,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -414,6 +463,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -589,379 +655,824 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
+      <c r="B44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
+      <c r="B48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
+      <c r="B49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
+      <c r="B50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
+      <c r="B51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
+      <c r="B53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
+      <c r="B54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
+      <c r="B55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
+      <c r="B56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
+      <c r="B57" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
+      <c r="B58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
+      <c r="B59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
+      <c r="B61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
+      <c r="B62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
+      <c r="B63" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
+      <c r="B64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
+      <c r="B65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
+      <c r="B66" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
+      <c r="B67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
+      <c r="B68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
+      <c r="B69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
+      <c r="B70" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
+      <c r="B71" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -969,12 +1480,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
